--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>786.5260479624186</v>
+        <v>46.71246076946579</v>
       </c>
       <c r="R2">
-        <v>7078.734431661767</v>
+        <v>420.412146925192</v>
       </c>
       <c r="S2">
-        <v>0.1430016676728605</v>
+        <v>0.01348314463616053</v>
       </c>
       <c r="T2">
-        <v>0.1430016676728605</v>
+        <v>0.01348314463616053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>775.2135041843386</v>
+        <v>1144.569901169621</v>
       </c>
       <c r="R3">
-        <v>6976.921537659047</v>
+        <v>10301.12911052659</v>
       </c>
       <c r="S3">
-        <v>0.1409448856628069</v>
+        <v>0.3303701254324318</v>
       </c>
       <c r="T3">
-        <v>0.1409448856628069</v>
+        <v>0.3303701254324318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>115.7089555931873</v>
+        <v>170.8393715445935</v>
       </c>
       <c r="R4">
-        <v>1041.380600338686</v>
+        <v>1537.554343901341</v>
       </c>
       <c r="S4">
-        <v>0.02103754053330649</v>
+        <v>0.04931129549039307</v>
       </c>
       <c r="T4">
-        <v>0.02103754053330649</v>
+        <v>0.04931129549039306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>649.1056105354955</v>
+        <v>26.11042900333778</v>
       </c>
       <c r="R5">
-        <v>5841.950494819459</v>
+        <v>234.99386103004</v>
       </c>
       <c r="S5">
-        <v>0.1180166696867252</v>
+        <v>0.007536547742617032</v>
       </c>
       <c r="T5">
-        <v>0.1180166696867252</v>
+        <v>0.007536547742617033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>639.7695743612288</v>
@@ -818,10 +818,10 @@
         <v>5757.926169251059</v>
       </c>
       <c r="S6">
-        <v>0.116319244984984</v>
+        <v>0.1846639111456503</v>
       </c>
       <c r="T6">
-        <v>0.116319244984984</v>
+        <v>0.1846639111456504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>95.49249190069942</v>
+        <v>95.49249190069945</v>
       </c>
       <c r="R7">
-        <v>859.4324271062949</v>
+        <v>859.432427106295</v>
       </c>
       <c r="S7">
-        <v>0.01736189872848258</v>
+        <v>0.02756307543545502</v>
       </c>
       <c r="T7">
-        <v>0.01736189872848257</v>
+        <v>0.02756307543545502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>1143.276762543621</v>
+        <v>45.98858221997867</v>
       </c>
       <c r="R8">
-        <v>10289.49086289259</v>
+        <v>413.897239979808</v>
       </c>
       <c r="S8">
-        <v>0.2078640422385332</v>
+        <v>0.01327420340247308</v>
       </c>
       <c r="T8">
-        <v>0.2078640422385331</v>
+        <v>0.01327420340247308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>1126.833100620101</v>
@@ -1004,10 +1004,10 @@
         <v>10141.49790558091</v>
       </c>
       <c r="S9">
-        <v>0.2048743496736095</v>
+        <v>0.3252505525550332</v>
       </c>
       <c r="T9">
-        <v>0.2048743496736094</v>
+        <v>0.3252505525550332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>168.1919632421426</v>
+        <v>168.1919632421427</v>
       </c>
       <c r="R10">
         <v>1513.727669179284</v>
       </c>
       <c r="S10">
-        <v>0.03057970081869186</v>
+        <v>0.04854714415978603</v>
       </c>
       <c r="T10">
-        <v>0.03057970081869186</v>
+        <v>0.04854714415978603</v>
       </c>
     </row>
   </sheetData>
